--- a/tasks/19/19.xlsx
+++ b/tasks/19/19.xlsx
@@ -1,110 +1,267 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="16330" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
   <si>
-    <t>П</t>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t>В</t>
+    <t xml:space="preserve">П</t>
   </si>
   <si>
-    <t>S</t>
+    <t xml:space="preserve">В</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
-    <border>
+  <borders count="11">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="15">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -125,175 +282,192 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCC0000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF006100"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -301,33 +475,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -340,13 +505,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -356,15 +515,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -372,7 +529,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -380,100 +536,538 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="16384" width="6" style="1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
-        <f>A3+2</f>
+      <c r="B3" s="2" t="n">
+        <f aca="false">A3+2</f>
         <v>26</v>
       </c>
-      <c r="C3" s="2">
-        <f>B3+2</f>
+      <c r="C3" s="3" t="n">
+        <f aca="false">B3+2</f>
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <f>A3*2</f>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="n">
+        <f aca="false">A3*2</f>
         <v>48</v>
       </c>
-      <c r="C4" s="3">
-        <f>B3*2</f>
+      <c r="C4" s="4" t="n">
+        <f aca="false">B3*2</f>
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <f>B4+2</f>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="3" t="n">
+        <f aca="false">B4+2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3">
-        <f>B4*2</f>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4" t="n">
+        <f aca="false">B4*2</f>
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="C3:C6">
+    <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>53</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>53</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:I30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.9140625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="5.91"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">C3+D3</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">C4+D4</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">C5+D5</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">C10+D10</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">C11+D11</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">C12+D12</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <f aca="false">A15+B15</f>
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">A$15+1</f>
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="false">B$15</f>
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">D15+E15</f>
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <f aca="false">D$15+1</f>
+        <v>7</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <f aca="false">E$15</f>
+        <v>24</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <f aca="false">G15+H15</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="1" t="n">
+        <f aca="false">A$15</f>
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <f aca="false">B$15+1</f>
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">D16+E16</f>
+        <v>30</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <f aca="false">D$15</f>
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">E$15+1</f>
+        <v>25</v>
+      </c>
+      <c r="I16" s="11" t="n">
+        <f aca="false">G16+H16</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="n">
+        <f aca="false">A$15*2</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">B$15</f>
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">D17+E17</f>
+        <v>34</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <f aca="false">D$15*2</f>
+        <v>12</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">E$15</f>
+        <v>24</v>
+      </c>
+      <c r="I17" s="11" t="n">
+        <f aca="false">G17+H17</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="1" t="n">
+        <f aca="false">A$15</f>
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <f aca="false">B$15*2</f>
+        <v>48</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">D18+E18</f>
+        <v>53</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">D$15</f>
+        <v>6</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <f aca="false">E$15*2</f>
+        <v>48</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <f aca="false">G18+H18</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="7" t="n">
+        <f aca="false">D$16+1</f>
+        <v>6</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <f aca="false">E$16</f>
+        <v>25</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <f aca="false">G19+H19</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="10" t="n">
+        <f aca="false">D$16</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">E$16+1</f>
+        <v>26</v>
+      </c>
+      <c r="I20" s="11" t="n">
+        <f aca="false">G20+H20</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="10" t="n">
+        <f aca="false">D$16*2</f>
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">E$16</f>
+        <v>25</v>
+      </c>
+      <c r="I21" s="11" t="n">
+        <f aca="false">G21+H21</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="12" t="n">
+        <f aca="false">D$16</f>
+        <v>5</v>
+      </c>
+      <c r="H22" s="13" t="n">
+        <f aca="false">E$16*2</f>
+        <v>50</v>
+      </c>
+      <c r="I22" s="14" t="n">
+        <f aca="false">G22+H22</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="7" t="n">
+        <f aca="false">D$17+1</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="8" t="n">
+        <f aca="false">E$17</f>
+        <v>24</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <f aca="false">G23+H23</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="10" t="n">
+        <f aca="false">D$17</f>
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <f aca="false">E$17+1</f>
+        <v>25</v>
+      </c>
+      <c r="I24" s="11" t="n">
+        <f aca="false">G24+H24</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="10" t="n">
+        <f aca="false">D$17*2</f>
+        <v>20</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <f aca="false">E$17</f>
+        <v>24</v>
+      </c>
+      <c r="I25" s="11" t="n">
+        <f aca="false">G25+H25</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="12" t="n">
+        <f aca="false">D$17</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <f aca="false">E$17*2</f>
+        <v>48</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <f aca="false">G26+H26</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="7" t="n">
+        <f aca="false">D$18+1</f>
+        <v>6</v>
+      </c>
+      <c r="H27" s="8" t="n">
+        <f aca="false">E$18</f>
+        <v>48</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <f aca="false">G27+H27</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="10" t="n">
+        <f aca="false">D$17</f>
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">E$18+1</f>
+        <v>49</v>
+      </c>
+      <c r="I28" s="11" t="n">
+        <f aca="false">G28+H28</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="10" t="n">
+        <f aca="false">D$18*2</f>
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">E$18</f>
+        <v>48</v>
+      </c>
+      <c r="I29" s="11" t="n">
+        <f aca="false">G29+H29</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="12" t="n">
+        <f aca="false">D$18</f>
+        <v>5</v>
+      </c>
+      <c r="H30" s="13" t="n">
+        <f aca="false">E$18*2</f>
+        <v>96</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <f aca="false">G30+H30</f>
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:E4 E10:E11">
+    <cfRule type="cellIs" priority="2" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>59</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5 E12">
+    <cfRule type="cellIs" priority="3" operator="greaterThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>59</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>